--- a/aoiConditions/train2Block20Test.xlsx
+++ b/aoiConditions/train2Block20Test.xlsx
@@ -34,28 +34,28 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/24_takopa1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi1.wav</t>
-  </si>
-  <si>
-    <t>pngimages/24_banana.png</t>
-  </si>
-  <si>
-    <t>pngimages/01_gift.png</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/18_popata2.wav</t>
-  </si>
-  <si>
-    <t>pngimages/15_barrel.png</t>
-  </si>
-  <si>
-    <t>pngimages/18_donut.png</t>
+    <t>trainingaudio/07_pitapi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita3.wav</t>
+  </si>
+  <si>
+    <t>pngimages/07_suitcase.png</t>
+  </si>
+  <si>
+    <t>pngimages/03_box.png</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/26_kapako1.wav</t>
+  </si>
+  <si>
+    <t>pngimages/17_cracker.png</t>
+  </si>
+  <si>
+    <t>pngimages/26_pineapple.png</t>
   </si>
 </sst>
 </file>
@@ -473,10 +473,10 @@
         <v>13</v>
       </c>
       <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="F3">
         <v>-0.5</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
